--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6445F9C8-1FAB-4BAF-914A-2DD259CD77B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B45AE3-A33F-407B-8C02-436A1E80088E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2644,12 +2644,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{6356CD51-458E-4555-8ACC-F559AE36DB0F}">
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なフォルダーID" error="フォルダーIDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{D7614C82-34E4-4139-ADDD-35E69B847219}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な種類" error="サポートされている種類を選択してください。" sqref="C2:C1048576" xr:uid="{D9F24F30-AB7B-4E32-8AA7-1913C536C8F6}">
       <formula1>"Classic,Modern"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D201" xr:uid="{8284C9F7-0339-4A0C-8503-AC3EFDFCA043}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロール割り当てモデル" error="サポートされているロール割り当てモデルを選択してください。" sqref="D2:D1048576" xr:uid="{18418FB4-DA13-4815-9641-198B9CB34847}">
       <formula1>"Custom Roles,Inherit from tenant"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な親フォルダーID" error="親フォルダーIDは0より大きい整数である必要があります。" sqref="E2:E1048576" xr:uid="{531E89CF-92A0-46E9-99DE-02C4B23B0C03}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2674,6 +2680,7 @@
     <col min="2" max="2" width="19.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -4298,11 +4305,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A201" xr:uid="{2EA72689-EB63-44F7-8568-C9C3C0CEF045}">
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="E2:E1048576" xr:uid="{8E9046E2-8387-4F08-BAD3-B5807E9E241D}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な種類" error="サポートされている種類を選択してください。" sqref="A2:A1048576" xr:uid="{F852AADD-5B2D-44F1-8EA5-13616A7BFA4B}">
       <formula1>"Classic,Modern"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{AC7F13E6-D7F2-46AA-B70E-8A542F414BEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロール割り当てモデル" error="サポートされているロール割り当てモデルを選択してください。" sqref="C2:C1048576" xr:uid="{594BB12E-422C-4960-9321-1E6115D04B02}">
       <formula1>"Custom Roles,Inherit from tenant"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5340,6 +5350,11 @@
       <c r="C201" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なフォルダーID" error="フォルダーIDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{AB678D8C-EC4C-43CE-995F-C1AD108F04E6}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD9E28-8F14-476D-B480-E52AD1789763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0625E2A-4993-4C67-B2B0-DBEF2E0170FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="999" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
+    <sheet name="フォルダーのユーザーを取得" sheetId="5" r:id="rId4"/>
+    <sheet name="フォルダーにユーザーを割り当てる" sheetId="6" r:id="rId5"/>
+    <sheet name="フォルダーからユーザーを外す" sheetId="7" r:id="rId6"/>
+    <sheet name="ユーザーのロールを追加または削除" sheetId="8" r:id="rId7"/>
+    <sheet name="クラシックからモダンフォルダーへの移行" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +64,54 @@
   </si>
   <si>
     <t xml:space="preserve">ロール割り当てモデル </t>
+  </si>
+  <si>
+    <t>フォルダー ID</t>
+  </si>
+  <si>
+    <t>ユーザー ID</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>ロール</t>
+  </si>
+  <si>
+    <t>ユーザーの種類</t>
+  </si>
+  <si>
+    <t>ロール名</t>
+  </si>
+  <si>
+    <t>モダンフォルダー名</t>
+  </si>
+  <si>
+    <t>追加されるロール名</t>
+  </si>
+  <si>
+    <t>削除されるロール名</t>
+  </si>
+  <si>
+    <t>クラッシックフォルダー名</t>
+  </si>
+  <si>
+    <t>ロボットグループの移行ポリシー</t>
+  </si>
+  <si>
+    <t>プロセスの移行ポリシー</t>
+  </si>
+  <si>
+    <t>アセットの移行ポリシー</t>
+  </si>
+  <si>
+    <t>キューの移行ポリシー</t>
+  </si>
+  <si>
+    <t>トリガーの移行ポリシー</t>
+  </si>
+  <si>
+    <t>ロボットの移行ポリシー</t>
   </si>
 </sst>
 </file>
@@ -100,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -225,11 +278,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -270,16 +358,858 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="63">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -485,24 +1415,9 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -653,6 +1568,27 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -667,42 +1603,116 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="15" dataDxfId="13" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="フォルダーID" totalsRowLabel="Total" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー名" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="種類" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{A7E16C89-EFE3-44B0-817F-E573DEC90AB2}" name="ロール割り当てモデル " dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="親フォルダーID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="親フォルダー名" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="フォルダーID" totalsRowLabel="Total" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー名" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="種類" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{A7E16C89-EFE3-44B0-817F-E573DEC90AB2}" name="ロール割り当てモデル " dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="親フォルダーID" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="親フォルダー名" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="種類" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="フォルダー名" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{79C08C40-B25C-43E2-A173-6B30C7D393DB}" name="ロール割り当てモデル " dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="親フォルダー名" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="種類" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="フォルダー名" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{79C08C40-B25C-43E2-A173-6B30C7D393DB}" name="ロール割り当てモデル " dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="親フォルダー名" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダーID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="フォルダー名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダー ID" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="フォルダー名" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE0F45E6-CB58-41D7-859F-1DC17B3E631E}" name="Table149" displayName="Table149" ref="A1:E201" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="8" xr3:uid="{A47A60CE-F2DA-4361-9D1E-0277DFEDCA41}" name="フォルダー ID" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{69C9F8E0-4CB8-48D0-A45A-01330916BA3B}" name="フォルダー名" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{AA1D7768-1958-46BE-A21B-B8493020AA02}" name="ユーザー ID" totalsRowLabel="Total" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7CED7321-7986-435B-A7FD-D6A37A311CE8}" name="ユーザー名" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{783E76D9-8014-432A-930B-753384D7E096}" name="ロール" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B3998B77-EF4F-4E76-9E0F-ED060EC5389B}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="3" xr3:uid="{14C544F6-EEF5-4927-B339-3EC847F77C99}" name="フォルダー名" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{04E8AB67-3606-4190-B4A9-71CB7DD9A083}" name="ユーザーの種類" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{E96D112A-9E76-4C6E-99A9-0B73B6EDA404}" name="ユーザー名" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B2839E13-6925-4E36-B3E1-73CD9A94F0BA}" name="ロール名" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{29E8D9AD-61A1-43B3-BE97-C1635E856303}" name="結果" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B9173BDD-94E9-463F-9078-D19A7E1E84B5}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{D4854099-E9BA-4D28-A283-FB815DB3FE3F}" name="フォルダー名" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{2278615E-D0B6-4422-A086-276BAA7D1560}" name="ユーザーの種類" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{59630AA5-06B1-41B7-9585-8FB19A677D58}" name="ユーザー名" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{5C5B4EC6-E671-44D6-902F-AACAD03AC143}" name="結果" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2ED8863A-865A-4744-AC57-3F445A59EF90}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{A7401E4B-EB3A-4FAB-846B-88F0C0777878}" name="モダンフォルダー名" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{F60C70FA-CC53-4B4B-B359-DFE5EBA868BE}" name="ユーザーの種類" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{2189DF4F-774E-4364-9F0F-6291420E44CD}" name="ユーザー名" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{12C174F9-2526-4FE8-AF40-B75F753E183D}" name="追加されるロール名" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7B89866C-0C11-4057-BAFB-5AE593DF0590}" name="削除されるロール名" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B6AECBD2-A8ED-47E7-829D-826C03664780}" name="結果" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{22174B08-8867-478C-B005-D5C0B66767EA}" name="Table135" displayName="Table135" ref="A1:I201" totalsRowShown="0">
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9E366ACA-1981-4741-8F8E-E8C51447038F}" name="クラッシックフォルダー名" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1FA4E71E-BDCB-472B-98F0-2266586C55A8}" name="ロボットグループの移行ポリシー" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{65C1F0A1-F6A8-4677-96AD-BBBD7140E06A}" name="モダンフォルダー名" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{09B687C4-8FB7-4271-AC7E-CAFBD67F804B}" name="プロセスの移行ポリシー" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9B4C3742-EA36-444D-AB8C-E3A327741775}" name="アセットの移行ポリシー" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{82B379BE-D3C2-4AF9-B4AD-F30BEF1540AC}" name="キューの移行ポリシー" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{53C56D95-053F-4F66-9F74-201019E4ECF2}" name="トリガーの移行ポリシー" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5472BEDE-7981-4CF8-8D00-B4993DAA71E0}" name="ロボットの移行ポリシー" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B1AA1F9A-1E28-43D6-AA36-721DAD382CD7}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,14 +1987,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="6" customWidth="1"/>
     <col min="4" max="4" width="24.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
@@ -2640,14 +3650,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.08984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="43.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="45.7265625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
@@ -4296,21 +5306,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="45.7265625" style="5" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -5331,4 +6338,8089 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A822498F-2F6C-45D8-99EC-91E5B110BC5E}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="16"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="16"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="16"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="16"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="16"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="16"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="16"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="16"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="16"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="16"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="16"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="16"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="16"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="16"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="16"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="16"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="16"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="16"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="16"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="16"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="16"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="16"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="16"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="16"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="16"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="16"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="16"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="16"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="16"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="16"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="16"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="16"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="16"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="16"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="16"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="16"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="16"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="16"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="16"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="16"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="16"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="16"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="16"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="16"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="16"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="16"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="16"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="16"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="16"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="16"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="16"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="16"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="16"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="16"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="16"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="16"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="16"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="16"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="16"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="16"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="16"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="16"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="16"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="16"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="16"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="16"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="16"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="16"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="16"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="16"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="16"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="16"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="16"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="16"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="16"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="16"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="16"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="16"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="16"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="16"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="16"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="16"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="16"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="16"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="16"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="16"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="16"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="16"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="16"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="16"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="16"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="16"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="16"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="16"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="16"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="16"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="16"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="16"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="16"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="16"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="16"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="16"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="16"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="16"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="16"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="16"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="16"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="16"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="16"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="16"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="16"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="16"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="16"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="16"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="16"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="18"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な ID" error="ユーザー ID は 0 より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{7B34E9BB-8FCD-4B6F-8E68-F399CD47DDE6}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な ID" error="フォルダー ID は 0 より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{63E25AAA-FD27-449F-97FC-D63B2CEEE7AE}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381BDCE-CD33-4582-9DAA-83F2FE2D1FED}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="17"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="17"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="17"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="17"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="17"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="17"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="17"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="17"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="17"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="17"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="17"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="17"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="17"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="17"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="17"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="17"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="17"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="17"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="17"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="17"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="17"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="17"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="17"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="17"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="17"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="17"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="17"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="17"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="17"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="17"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="17"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="17"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="17"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="17"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="17"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="17"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="17"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="17"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="17"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="17"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="17"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="17"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="17"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="17"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="17"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="17"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="17"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="17"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="17"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="17"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="17"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="17"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="17"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="17"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="17"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="17"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="17"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="17"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="17"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="17"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="17"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="17"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="17"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="17"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="17"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="20"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="17"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なユーザーの種類" error="サポートされているユーザーの種類を選択してください。" sqref="B2:B1048576" xr:uid="{FCCE3DEB-395C-44E4-954C-CB393DF1F823}">
+      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17733D69-41FD-453B-85B5-47D889E1E279}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="17"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="17"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="17"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="17"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="17"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="17"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="17"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="17"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="17"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="17"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="17"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="17"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="17"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="17"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="17"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="17"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="17"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="17"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="17"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="17"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="17"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="17"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="17"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="17"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="17"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="17"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="17"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="17"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="17"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="17"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="17"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="17"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="17"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="17"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="17"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="17"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="17"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="17"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="17"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="17"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="17"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="17"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="17"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="17"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="17"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="17"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="17"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="17"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="17"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="17"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="17"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="17"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="17"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="17"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="17"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="17"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="17"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="17"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="17"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="17"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="17"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="17"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="17"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="17"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="17"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="17"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="17"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="17"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="17"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="17"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="17"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="17"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="17"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="17"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="17"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="17"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="17"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="17"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="17"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="17"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="17"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="17"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="17"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="17"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="17"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="17"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="17"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="17"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="17"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="17"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="20"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="17"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なユーザーの種類" error="サポートされているユーザーの種類を選択してください。" sqref="B2:B1048576" xr:uid="{7A2C5C72-6214-4161-B118-B74F92394DAC}">
+      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB0055F-F6D7-4D08-A179-7D7688AD4714}">
+  <dimension ref="A1:F201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="6" width="45.7265625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="17"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="17"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="17"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="17"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="17"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="17"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="17"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="17"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="20"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="20"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="17"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="17"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="17"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="17"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="17"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="17"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="17"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="17"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="17"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="17"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="17"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="17"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="17"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="17"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="17"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="17"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="17"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="17"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="17"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="17"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="17"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="17"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="17"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="17"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="17"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="17"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="17"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="17"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="17"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="17"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="17"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="17"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="17"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="17"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="17"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="17"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="17"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="17"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="17"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="17"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="17"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="17"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="17"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="17"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="17"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="17"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="17"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="17"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="17"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="17"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="17"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="17"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="17"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="17"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="17"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="17"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="17"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="17"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="17"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="17"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="17"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="17"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="17"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="17"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="17"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="17"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="17"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="20"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="17"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なユーザーの種類" error="サポートされているユーザーの種類を選択してください。" sqref="B2:B1048576" xr:uid="{81CBB35A-2618-45CC-A111-3D7FD89D17A3}">
+      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85295652-30E7-4A2E-B781-FC3835F29867}">
+  <dimension ref="A1:I201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" customWidth="1"/>
+    <col min="6" max="6" width="46.81640625" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.81640625" customWidth="1"/>
+    <col min="9" max="9" width="45.7265625" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="25"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="25"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="25"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="25"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="25"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="25"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="17"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="17"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="17"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="17"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="17"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="17"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="17"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="17"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="17"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="17"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="17"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="17"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="17"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="17"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="17"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="17"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="17"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="17"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="17"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="17"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="17"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="17"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="17"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="17"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="17"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="17"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="17"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="17"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="17"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="17"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="17"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="17"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="17"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="17"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="17"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="17"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="17"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="17"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="17"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="17"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="17"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="17"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="17"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="17"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="17"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="17"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="17"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="17"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="17"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="17"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="17"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="17"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="17"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="17"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="17"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="17"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="17"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="17"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="17"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="17"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="17"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="17"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="17"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="17"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="17"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="17"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="17"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="17"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="17"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="17"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="17"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="17"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="17"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="17"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="17"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="17"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="17"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="17"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="17"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="17"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="17"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="17"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="17"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="17"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="17"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="17"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="17"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="17"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="17"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="17"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" s="28"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:H201">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$B2 = "Environments to Different Modern Folders"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な移行ポリシー" error="サポートされているロボットの移行ポリシーを選択してください。" sqref="H2:H1048576" xr:uid="{C78E46DE-7039-4DBC-9028-B6EC5295B7CB}">
+      <formula1>"Overwrite Execution Settings And Delete Classic Robots,Do Not Overwrite Execution Settings Nor Delete Classic Robots,Do Not Migrate Robots"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な移行ポリシー" error="サポートされているトリガーの移行ポリシーを選択してください。" sqref="G2:G1048576" xr:uid="{B1362B81-E9FE-46A5-A46A-6AC85C75E5C0}">
+      <formula1>"Migrate All Triggers,Do Not Migrate Triggers"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な移行ポリシー" error="サポートされているキューの移行ポリシーを選択してください。" sqref="F2:F1048576" xr:uid="{0D15F692-2B1F-43F0-809C-091B53929DE9}">
+      <formula1>"Migrate Queue Definitions and New Items,Migrate Queue Definitions But Not Queue Items,Do Not Migrate Queues"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な移行ポリシー" error="サポートされているプロセスの移行ポリシーを選択してください。" sqref="D2:D1048576" xr:uid="{605E33F8-EAA8-4326-8E1E-1457D5E899AC}">
+      <formula1>"Migrate All Processes,Do Not Migrate Processes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な移行ポリシー" error="サポートされているロボットグループの移行ポリシーを選択してください。" sqref="B2:B1048576" xr:uid="{20155FF5-5D7A-4C2D-A494-F4742CDB9831}">
+      <formula1>"Environments to Same Modern Folder,Environments to Different Modern Folders"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な移行ポリシー" error="サポートされているアセットの移行ポリシーを選択してください。" sqref="E2:E1048576" xr:uid="{17696B57-ADAF-426D-9FC6-FC5BCE300230}">
+      <formula1>"Migrate All Assets,Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D0D34E-FCE3-47F4-96D1-CE38D42B0C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E000BC04-53CC-423A-AC9C-B464DBEC33CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="954" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="954" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1980,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5303,7 +5303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12141,7 +12143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85295652-30E7-4A2E-B781-FC3835F29867}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E000BC04-53CC-423A-AC9C-B464DBEC33CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5C017-BD05-4FBB-BDEF-F33DB48DC3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="954" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="300" windowWidth="28770" windowHeight="15300" tabRatio="954" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1980,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5288,7 +5288,7 @@
       <formula1>"Classic,Modern"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロール割り当てモデル" error="サポートされているロール割り当てモデルを選択してください。" sqref="C2:C1048576" xr:uid="{594BB12E-422C-4960-9321-1E6115D04B02}">
-      <formula1>"Custom Roles,Inherit from tenant"</formula1>
+      <formula1>"Custom Roles,Inherit from Tenant"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12143,7 +12143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85295652-30E7-4A2E-B781-FC3835F29867}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF0F9B-FD1E-4469-A2AF-BA55C302F71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAE6F7F-F82D-4350-898C-C13755E6C2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="954" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="フォルダーにユーザーを割り当てる" sheetId="6" r:id="rId5"/>
     <sheet name="フォルダーからユーザーを外す" sheetId="7" r:id="rId6"/>
     <sheet name="ユーザーのロールを追加または削除" sheetId="8" r:id="rId7"/>
-    <sheet name="クラシックからモダンフォルダーへの移行" sheetId="9" r:id="rId8"/>
+    <sheet name="クラシック フォルダーからモダン フォルダーへ移行" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12144,7 +12144,7 @@
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B970B87-D2C2-4DF1-BE5C-60DF9DEBA032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D8B2F-09CD-4DBA-9254-42D404E0B6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" tabRatio="881" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D8B2F-09CD-4DBA-9254-42D404E0B6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62259AC-26F7-4241-AD78-D2D24CE88D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" tabRatio="881" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -2056,6 +2056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3718,6 +3719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5583,6 +5585,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6623,6 +6626,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D1B262-9D81-4212-8C13-2308BFE31DAF}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8076,6 +8080,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015C6E48-66FD-4873-9A52-E0600ED1714D}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9527,6 +9532,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3210507-5929-4B73-8AEE-1DB9495D0116}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10774,6 +10780,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998AD1E8-D314-41A0-AC10-47539AE918B0}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12427,6 +12434,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DD3B9-D83D-408E-AEF0-E69491DEC7A2}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62259AC-26F7-4241-AD78-D2D24CE88D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF67B1FC-A5E9-41DC-90E0-31A7BB16ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" tabRatio="881" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF67B1FC-A5E9-41DC-90E0-31A7BB16ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875BD247-942D-4EF6-9327-81CDC05A067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" tabRatio="881" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875BD247-942D-4EF6-9327-81CDC05A067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DECB8B-0BEB-40B1-96B1-3888F11F6AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" tabRatio="881" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DECB8B-0BEB-40B1-96B1-3888F11F6AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C29BAEA-5C04-455E-9DD2-97352A4E3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C29BAEA-5C04-455E-9DD2-97352A4E3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF17ADBB-BA26-4CBF-91B0-1CD22631F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF17ADBB-BA26-4CBF-91B0-1CD22631F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2C55B-FADA-4041-A0D7-187B5EB8CDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2C55B-FADA-4041-A0D7-187B5EB8CDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6214D8-2DFE-4E5F-8C0C-F8F53C2D5793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" tabRatio="881" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="881" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="ユーザーをフォルダーに割り当て" sheetId="7" r:id="rId5"/>
     <sheet name="ユーザーをフォルダーから割り当て解除" sheetId="8" r:id="rId6"/>
     <sheet name="ユーザーのロールを追加または削除" sheetId="9" r:id="rId7"/>
-    <sheet name="クラシック フォルダーからモダン フォルダーへ移行" sheetId="6" r:id="rId8"/>
+    <sheet name="マシンの割り当てまたは解除" sheetId="12" r:id="rId8"/>
+    <sheet name="クラシック フォルダーからモダン フォルダーへ移行" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>フォルダーID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +120,14 @@
   </si>
   <si>
     <t>削除されるロール名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マシン名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割り当てする</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -447,7 +456,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="65">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -687,6 +696,114 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1677,15 +1794,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="フォルダーID" totalsRowLabel="Total" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー名" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="種類" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="ロール割り当てモデル " dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="親フォルダーID" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="親フォルダー名" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="フォルダーID" totalsRowLabel="Total" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー名" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="種類" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="ロール割り当てモデル " dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="親フォルダーID" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="親フォルダー名" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1695,13 +1812,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="種類" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="フォルダー名" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="ロール割り当てモデル " dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="親フォルダー名" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{53545213-0823-4855-82C0-CBF3680CEBEF}" name="新しいパッケージフィードを作成" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="種類" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="フォルダー名" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="ロール割り当てモデル " dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="親フォルダー名" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{53545213-0823-4855-82C0-CBF3680CEBEF}" name="新しいパッケージフィードを作成" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1711,71 +1828,84 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダー ID" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="フォルダー名" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダー ID" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="フォルダー名" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{45B4E212-FB25-4926-8EFE-7ED240AA856C}" name="Table149" displayName="Table149" ref="A1:E201" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{45B4E212-FB25-4926-8EFE-7ED240AA856C}" name="Table149" displayName="Table149" ref="A1:E201" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="42" headerRowBorderDxfId="45" tableBorderDxfId="43">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="8" xr3:uid="{4DF34734-8AE3-42A6-851B-7A61AF64C654}" name="フォルダー ID" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{C0A7F287-AD13-4609-8BA1-3FA54A0E85DF}" name="フォルダー名" dataDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{997B1252-97F8-402D-A662-E222298C88F5}" name="ユーザー ID" totalsRowLabel="Total" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{DFA1F0BF-1FEF-4271-8839-7360B39B473E}" name="ユーザー名" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{D98DA2EA-81F3-47A3-97EC-A18A3632C629}" name="ロール" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{4DF34734-8AE3-42A6-851B-7A61AF64C654}" name="フォルダー ID" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{C0A7F287-AD13-4609-8BA1-3FA54A0E85DF}" name="フォルダー名" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{997B1252-97F8-402D-A662-E222298C88F5}" name="ユーザー ID" totalsRowLabel="Total" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{DFA1F0BF-1FEF-4271-8839-7360B39B473E}" name="ユーザー名" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{D98DA2EA-81F3-47A3-97EC-A18A3632C629}" name="ロール" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDC6F694-073B-4FF6-BAAB-2D8BAA6EA050}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDC6F694-073B-4FF6-BAAB-2D8BAA6EA050}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="フォルダー名" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="ユーザーの種類" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="ユーザー名" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="ロール名" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="結果" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="フォルダー名" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="ユーザーの種類" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="ユーザー名" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="ロール名" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="結果" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27CBD4C8-9383-4F8D-AADD-FEDC2DEABF3A}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27CBD4C8-9383-4F8D-AADD-FEDC2DEABF3A}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="フォルダー名" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="ユーザーの種類" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="ユーザー名" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="結果" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="フォルダー名" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="ユーザーの種類" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="ユーザー名" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="結果" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5AB929EC-5BE4-43C5-9C88-BF280FD1F15C}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5AB929EC-5BE4-43C5-9C88-BF280FD1F15C}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{9D480455-1BE6-4FEB-9796-1381F8601597}" name="モダンフォルダー名" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{2862C53D-FB15-48F6-B5E6-6399482D1429}" name="ユーザーの種類" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{4393DD17-361E-4B9B-B23B-082510BFE05E}" name="ユーザー名" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{47245EBD-FCCC-4593-A6D5-DC8E9899C7C4}" name="追加されるロール名" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{03B63F28-C72D-44EF-8EA8-93461C5F4B78}" name="削除されるロール名" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{27017632-DB33-4EA9-830F-7E0C97F6E58B}" name="結果" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9D480455-1BE6-4FEB-9796-1381F8601597}" name="モダンフォルダー名" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{2862C53D-FB15-48F6-B5E6-6399482D1429}" name="ユーザーの種類" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{4393DD17-361E-4B9B-B23B-082510BFE05E}" name="ユーザー名" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{47245EBD-FCCC-4593-A6D5-DC8E9899C7C4}" name="追加されるロール名" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{03B63F28-C72D-44EF-8EA8-93461C5F4B78}" name="削除されるロール名" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{27017632-DB33-4EA9-830F-7E0C97F6E58B}" name="結果" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D5CEA886-0E9F-4813-B8E9-586B11FED1E7}" name="Table136810" displayName="Table136810" ref="A1:D201" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{5A875516-10C8-449D-B27D-04CDC132B0B9}" name="フォルダー名" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{22C24C1F-80BF-4A8B-9728-F312E2A054E8}" name="マシン名" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{174C8A20-C533-4EDE-AA74-1C171776B7FA}" name="割り当てする" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DE530E13-D886-4B85-A046-E4D6279B35A3}" name="結果" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
@@ -12433,8 +12563,1256 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFB4649-E887-4FB6-B712-001F0CBDC1AF}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="45.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="21"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="21"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="21"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="21"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="21"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="21"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="21"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="21"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="21"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="21"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="21"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="21"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="21"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="21"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="21"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="21"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="21"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="21"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="21"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="21"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="21"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="21"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="21"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="21"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="21"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="21"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="21"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="21"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="21"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="21"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="21"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="21"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="21"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="21"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="21"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="21"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="21"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="21"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="21"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="21"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="21"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="21"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="23"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="21"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="23"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="21"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="23"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="21"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="23"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="21"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="23"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="21"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="23"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="21"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="21"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="21"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="23"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="21"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="23"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="21"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="23"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="23"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="21"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="23"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="21"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="23"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="21"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="21"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="21"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="23"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="21"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="23"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="21"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="23"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="21"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="23"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="21"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="23"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="21"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="23"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="21"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="23"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="21"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="23"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="21"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="23"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="21"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="23"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="21"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="23"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="21"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="23"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="21"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="23"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="21"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="23"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="21"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="23"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="21"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="23"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="21"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="23"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="21"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="23"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="21"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="23"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="21"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="23"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="21"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="23"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="21"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="23"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="21"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="23"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="21"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="23"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="21"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="23"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="21"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="23"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="21"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="23"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="21"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="23"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="21"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="23"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="21"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="23"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="21"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="23"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="21"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="23"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="21"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="23"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="21"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="23"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="21"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="23"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="21"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="23"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="21"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="23"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{FDC9B195-BFF4-4D85-9A24-8B209A107CE9}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DD3B9-D83D-408E-AEF0-E69491DEC7A2}">
-  <sheetPr codeName="Sheet8"/>
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -12457,28 +13835,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>8</v>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6214D8-2DFE-4E5F-8C0C-F8F53C2D5793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7666115F-AA43-482D-9D1B-2FAD80E1BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="881" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" tabRatio="881" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5288689-06CD-48FB-9243-D4002774643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF8F34-A81F-4A37-A781-581E9235AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF8F34-A81F-4A37-A781-581E9235AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081F122-70AE-4C1F-9D9C-EFFE20FCA661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081F122-70AE-4C1F-9D9C-EFFE20FCA661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A6748-8FF4-463B-BD87-DF64675150F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11A6748-8FF4-463B-BD87-DF64675150F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C485A-282E-46DE-8F2A-03F3A65CC2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" tabRatio="881" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -3853,7 +3853,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C485A-282E-46DE-8F2A-03F3A65CC2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9220418-6C94-4772-822C-C5D3D7681843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" tabRatio="881" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9220418-6C94-4772-822C-C5D3D7681843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D497CE-9FD7-45D6-B049-38BF3BE977C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/フォルダー.xlsx
+++ b/Workbooks/JA/フォルダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D497CE-9FD7-45D6-B049-38BF3BE977C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C049B54D-741F-4244-915C-3D6A4C4564F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" tabRatio="881" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" tabRatio="881" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
